--- a/Active_Crew.xlsx
+++ b/Active_Crew.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msaeid\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C47CEB-2583-458C-AD4D-8065DCB31997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9282259-0FDF-439C-8CA4-09FE036D208E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Crew" sheetId="1" r:id="rId1"/>
@@ -7121,9 +7121,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E763" totalsRowShown="0">
   <autoFilter ref="A1:E763" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E763">
-    <sortCondition ref="E1:E763"/>
-  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="(Do Not Modify) Crew"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="(Do Not Modify) Row Checksum"/>
@@ -7456,16 +7453,16 @@
   <dimension ref="A1:E3708"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E280" sqref="E280"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -23432,7 +23429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
